--- a/Data/Assumption/Zone_Limit/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneB2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MaxCapacity" sheetId="4" r:id="rId1"/>
@@ -68,24 +68,6 @@
     <t>BIO_IGCC_CHP</t>
   </si>
   <si>
-    <t>COA_CHP_BP</t>
-  </si>
-  <si>
-    <t>COA_CHP_EC</t>
-  </si>
-  <si>
-    <t>GAS_CHP_BP</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC</t>
-  </si>
-  <si>
-    <t>COA_CHP_BP_CCS</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC_CCS</t>
-  </si>
-  <si>
     <t>ProcessName</t>
   </si>
   <si>
@@ -123,6 +105,24 @@
   </si>
   <si>
     <t>BIO_IGCC_CCS</t>
+  </si>
+  <si>
+    <t>COA_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_CCS_DH</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -586,7 +586,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>0</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>0</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>0</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>0</v>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -2042,7 +2042,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>0</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>0</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>0</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>0</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>0</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>0</v>

--- a/Data/Assumption/Zone_Limit/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneB2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MaxCapacity" sheetId="4" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1006,34 +1006,34 @@
         <v>1000</v>
       </c>
       <c r="D12" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1047,34 +1047,34 @@
         <v>1000</v>
       </c>
       <c r="D13" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1088,34 +1088,34 @@
         <v>1000</v>
       </c>
       <c r="D14" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1129,34 +1129,34 @@
         <v>1000</v>
       </c>
       <c r="D15" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,34 +1170,34 @@
         <v>1000</v>
       </c>
       <c r="D16" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1211,34 +1211,34 @@
         <v>1000</v>
       </c>
       <c r="D17" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1252,34 +1252,34 @@
         <v>1000</v>
       </c>
       <c r="D18" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1293,34 +1293,34 @@
         <v>1000</v>
       </c>
       <c r="D19" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1334,34 +1334,34 @@
         <v>1000</v>
       </c>
       <c r="D20" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1375,34 +1375,34 @@
         <v>1000</v>
       </c>
       <c r="D21" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1416,34 +1416,34 @@
         <v>1000</v>
       </c>
       <c r="D22" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M22" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1457,34 +1457,34 @@
         <v>1000</v>
       </c>
       <c r="D23" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M23" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A34"/>
     </sheetView>
   </sheetViews>

--- a/Data/Assumption/Zone_Limit/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneB2.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:M23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>4000</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>4000</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>4000</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="6">
         <v>1000</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6">
         <v>1000</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
         <v>1000</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
         <v>4000</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="6">
         <v>4000</v>
